--- a/lab3-18.10.22/lab3-18.10.22.xlsx
+++ b/lab3-18.10.22/lab3-18.10.22.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D076D9-4451-4A21-B978-91543E8EA773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552D9D71-DDE5-459C-BE2E-755E774E0EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2232" yWindow="2232" windowWidth="20076" windowHeight="9636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9:X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1282,11 +1282,11 @@
         <v>0.13229384565132998</v>
       </c>
       <c r="O14" s="28">
-        <v>0.14283000000000001</v>
+        <v>0.13746</v>
       </c>
       <c r="P14" s="31">
         <f t="shared" si="1"/>
-        <v>7.9642059664958467</v>
+        <v>3.9050602265246641</v>
       </c>
       <c r="R14" s="14">
         <f>R13</f>
@@ -1304,11 +1304,11 @@
         <v>23.549299007770117</v>
       </c>
       <c r="W14" s="28">
-        <v>26.06</v>
+        <v>25.081</v>
       </c>
       <c r="X14" s="31">
         <f t="shared" si="3"/>
-        <v>10.661468060690357</v>
+        <v>6.5042317893390225</v>
       </c>
       <c r="AE14" s="5"/>
     </row>
